--- a/PROJETO PI-SEMAFORO/Backlog PI.xlsx
+++ b/PROJETO PI-SEMAFORO/Backlog PI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BRUNO\BandTec\Pesquisa e Inovação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\BandTec\Projeto-repository\PROJETO PI-SEMAFORO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041FC6C-92DB-4220-A6FD-F53CC08F3F61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Requisitos</t>
   </si>
@@ -63,9 +64,6 @@
     <t>O website terá uma tela de sugestões, onde os clientes poderão falar sobre a funcionabilidade do sensor</t>
   </si>
   <si>
-    <t>Sistema de software que fará comunicação com os semáforos, o de pedestre comunicando com o farol direcionado para os automóveis</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -108,20 +106,20 @@
     <t>Dispositivo precisará de um sensor proximidade</t>
   </si>
   <si>
-    <t>O dispositivo terá uma função de otimizar as vias, diminuindo o congestionamento, e em horários noturnos (os mais perigosos - depois das 23 horas), diminuir o risco de assaltos a motoristas e pedestre</t>
-  </si>
-  <si>
     <t>O website terá um login comum que contará com e-mail e senha de orgãos exclusivos (os quais terão acesso as informações para o controle de atividades, sejam eles para manutenção ou manipulação de dados, e um outro tipo de login para pessoas possam obter informações sobre o congestionamento de vias e circulação de pessoas em determinada área e determinado horário)</t>
   </si>
   <si>
     <t>O projeto utilizará um sensor de proximidade para captar se tem algum pedestre no local por 5 segundos, se houver o sensor capta o pedestre e fecha o semáforo.</t>
+  </si>
+  <si>
+    <t>O dispositivo terá uma função de otimizar as vias, diminuindo o congestionamento, e em horários noturnos (os mais perigosos - depois das 23 horas), diminuir o risco de assaltos a motoristas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +127,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -224,21 +243,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,6 +272,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,217 +551,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="4">
         <v>1201134</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4">
         <v>1201021</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>1201035</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>1201128</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10"/>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>1201135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7">
         <v>1201085</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>1201100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -789,11 +817,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
